--- a/Filtered_By_Region/Region VIII/Region VIII_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region VIII/Region VIII_ELECTRIFICATION.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS587"/>
+  <dimension ref="A1:AU587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,17 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 45</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -826,7 +836,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -993,7 +1003,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1160,7 +1170,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1327,7 +1337,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1494,7 +1504,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1661,7 +1671,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1828,7 +1838,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1995,7 +2005,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2162,7 +2172,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2329,7 +2339,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2496,7 +2506,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2663,7 +2673,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2830,7 +2840,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2997,7 +3007,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3164,7 +3174,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3331,7 +3341,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3498,7 +3508,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3665,7 +3675,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3832,7 +3842,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3999,7 +4009,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4166,7 +4176,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4333,7 +4343,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4500,7 +4510,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4667,7 +4677,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4834,7 +4844,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5001,7 +5011,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5168,7 +5178,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5335,7 +5345,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5497,7 +5507,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5659,7 +5674,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5821,7 +5841,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5988,7 +6013,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6155,7 +6180,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6322,7 +6347,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6489,7 +6514,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6656,7 +6681,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6823,7 +6848,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6990,7 +7015,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7157,7 +7182,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7324,7 +7349,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7491,7 +7516,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7658,7 +7683,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7825,7 +7850,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7992,7 +8017,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8159,7 +8184,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8326,7 +8351,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8493,7 +8518,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8660,7 +8685,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8827,7 +8852,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8994,7 +9019,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9161,7 +9186,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9328,7 +9353,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9495,7 +9520,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9662,7 +9687,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9829,7 +9854,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9996,7 +10021,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10163,7 +10188,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10330,7 +10355,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10497,7 +10522,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AT60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10664,7 +10689,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10831,7 +10856,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10998,7 +11023,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11165,7 +11190,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11332,7 +11357,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11499,7 +11524,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11666,7 +11691,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11833,7 +11858,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12000,7 +12025,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12167,7 +12192,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12334,7 +12359,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12501,7 +12526,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12668,7 +12693,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12835,7 +12860,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13002,7 +13027,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13169,7 +13194,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13301,7 +13326,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13433,7 +13458,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13565,7 +13590,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13708,7 +13733,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13851,7 +13876,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13996,7 +14021,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14139,7 +14164,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14282,7 +14307,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14425,7 +14450,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14568,7 +14593,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AT86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14733,7 +14758,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
+      <c r="AT87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14898,7 +14923,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
+      <c r="AT88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15063,7 +15088,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AT89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15199,7 +15224,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AT90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15335,7 +15360,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AT91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15471,7 +15496,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
+      <c r="AT92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15607,7 +15632,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AT93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15752,7 +15777,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
+      <c r="AT94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15897,7 +15922,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
+      <c r="AT95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16042,7 +16067,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AT96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16179,7 +16204,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AT97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16321,7 +16346,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR98" t="inlineStr">
+      <c r="AT98" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16487,7 +16512,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
+      <c r="AT99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16653,7 +16678,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
+      <c r="AT100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16790,7 +16815,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
+      <c r="AT101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16956,7 +16981,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR102" t="inlineStr">
+      <c r="AT102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17122,7 +17147,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR103" t="inlineStr">
+      <c r="AT103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17288,7 +17313,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR104" t="inlineStr">
+      <c r="AT104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17438,7 +17463,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR105" t="inlineStr">
+      <c r="AT105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17560,7 +17585,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR106" t="inlineStr">
+      <c r="AT106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17710,7 +17735,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR107" t="inlineStr">
+      <c r="AT107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17832,7 +17857,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
+      <c r="AT108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17954,7 +17979,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR109" t="inlineStr">
+      <c r="AT109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18076,7 +18101,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR110" t="inlineStr">
+      <c r="AT110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18198,7 +18223,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR111" t="inlineStr">
+      <c r="AT111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18320,7 +18345,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR112" t="inlineStr">
+      <c r="AT112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18442,7 +18467,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR113" t="inlineStr">
+      <c r="AT113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18564,7 +18589,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR114" t="inlineStr">
+      <c r="AT114" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18686,7 +18711,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR115" t="inlineStr">
+      <c r="AT115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18836,7 +18861,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR116" t="inlineStr">
+      <c r="AT116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18958,7 +18983,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR117" t="inlineStr">
+      <c r="AT117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19108,7 +19133,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR118" t="inlineStr">
+      <c r="AT118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19258,7 +19283,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR119" t="inlineStr">
+      <c r="AT119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19380,7 +19405,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR120" t="inlineStr">
+      <c r="AT120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19502,7 +19527,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR121" t="inlineStr">
+      <c r="AT121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19624,7 +19649,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR122" t="inlineStr">
+      <c r="AT122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19741,7 +19766,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR123" t="inlineStr">
+      <c r="AT123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19863,7 +19888,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR124" t="inlineStr">
+      <c r="AT124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19985,7 +20010,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR125" t="inlineStr">
+      <c r="AT125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20107,7 +20132,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR126" t="inlineStr">
+      <c r="AT126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20224,7 +20249,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR127" t="inlineStr">
+      <c r="AT127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20341,7 +20366,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR128" t="inlineStr">
+      <c r="AT128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20463,7 +20488,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR129" t="inlineStr">
+      <c r="AT129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20585,7 +20610,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR130" t="inlineStr">
+      <c r="AT130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20707,7 +20732,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR131" t="inlineStr">
+      <c r="AT131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20857,7 +20882,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR132" t="inlineStr">
+      <c r="AT132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20979,7 +21004,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR133" t="inlineStr">
+      <c r="AT133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21129,7 +21154,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR134" t="inlineStr">
+      <c r="AT134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21246,7 +21271,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR135" t="inlineStr">
+      <c r="AT135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21396,7 +21421,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR136" t="inlineStr">
+      <c r="AT136" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21546,7 +21571,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR137" t="inlineStr">
+      <c r="AT137" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21668,7 +21693,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR138" t="inlineStr">
+      <c r="AT138" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21785,7 +21810,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR139" t="inlineStr">
+      <c r="AT139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21907,7 +21932,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR140" t="inlineStr">
+      <c r="AT140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22024,7 +22049,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR141" t="inlineStr">
+      <c r="AT141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22146,7 +22171,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR142" t="inlineStr">
+      <c r="AT142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22263,7 +22288,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR143" t="inlineStr">
+      <c r="AT143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22385,7 +22410,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR144" t="inlineStr">
+      <c r="AT144" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22507,7 +22532,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR145" t="inlineStr">
+      <c r="AT145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22629,7 +22654,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR146" t="inlineStr">
+      <c r="AT146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22779,7 +22804,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR147" t="inlineStr">
+      <c r="AT147" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22896,7 +22921,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR148" t="inlineStr">
+      <c r="AT148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23046,7 +23071,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR149" t="inlineStr">
+      <c r="AT149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23196,7 +23221,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR150" t="inlineStr">
+      <c r="AT150" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23346,7 +23371,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR151" t="inlineStr">
+      <c r="AT151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23496,7 +23521,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR152" t="inlineStr">
+      <c r="AT152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23646,7 +23671,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR153" t="inlineStr">
+      <c r="AT153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23796,7 +23821,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR154" t="inlineStr">
+      <c r="AT154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23918,7 +23943,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR155" t="inlineStr">
+      <c r="AT155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24040,7 +24065,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR156" t="inlineStr">
+      <c r="AT156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24157,7 +24182,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR157" t="inlineStr">
+      <c r="AT157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24279,7 +24304,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR158" t="inlineStr">
+      <c r="AT158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24429,7 +24454,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR159" t="inlineStr">
+      <c r="AT159" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24551,7 +24576,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR160" t="inlineStr">
+      <c r="AT160" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24673,7 +24698,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR161" t="inlineStr">
+      <c r="AT161" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24823,7 +24848,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR162" t="inlineStr">
+      <c r="AT162" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24940,7 +24965,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR163" t="inlineStr">
+      <c r="AT163" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25090,7 +25115,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR164" t="inlineStr">
+      <c r="AT164" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25240,7 +25265,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR165" t="inlineStr">
+      <c r="AT165" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25393,7 +25418,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR166" t="inlineStr">
+      <c r="AT166" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25546,7 +25571,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR167" t="inlineStr">
+      <c r="AT167" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25699,7 +25724,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR168" t="inlineStr">
+      <c r="AT168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -25852,7 +25877,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR169" t="inlineStr">
+      <c r="AT169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26005,7 +26030,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR170" t="inlineStr">
+      <c r="AT170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26156,7 +26181,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR171" t="inlineStr">
+      <c r="AT171" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26307,7 +26332,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR172" t="inlineStr">
+      <c r="AT172" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26458,7 +26483,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR173" t="inlineStr">
+      <c r="AT173" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26609,7 +26634,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR174" t="inlineStr">
+      <c r="AT174" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26762,7 +26787,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR175" t="inlineStr">
+      <c r="AT175" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -26915,7 +26940,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR176" t="inlineStr">
+      <c r="AT176" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27071,7 +27096,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR177" t="inlineStr">
+      <c r="AT177" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27227,7 +27252,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR178" t="inlineStr">
+      <c r="AT178" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27363,7 +27388,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR179" t="inlineStr">
+      <c r="AT179" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27499,7 +27524,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR180" t="inlineStr">
+      <c r="AT180" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27664,7 +27689,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR181" t="inlineStr">
+      <c r="AT181" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27814,7 +27839,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR182" t="inlineStr">
+      <c r="AT182" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -27950,7 +27975,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR183" t="inlineStr">
+      <c r="AT183" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28086,7 +28111,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR184" t="inlineStr">
+      <c r="AT184" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28251,7 +28276,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR185" t="inlineStr">
+      <c r="AS185" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT185" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28416,7 +28446,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR186" t="inlineStr">
+      <c r="AT186" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28566,7 +28596,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR187" t="inlineStr">
+      <c r="AT187" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28731,7 +28761,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR188" t="inlineStr">
+      <c r="AS188" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT188" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -28896,7 +28931,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR189" t="inlineStr">
+      <c r="AT189" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29061,7 +29096,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR190" t="inlineStr">
+      <c r="AT190" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29226,7 +29261,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR191" t="inlineStr">
+      <c r="AS191" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT191" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29376,7 +29416,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR192" t="inlineStr">
+      <c r="AT192" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29541,7 +29581,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR193" t="inlineStr">
+      <c r="AS193" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT193" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29706,7 +29751,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR194" t="inlineStr">
+      <c r="AT194" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -29856,7 +29901,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR195" t="inlineStr">
+      <c r="AT195" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30006,7 +30051,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR196" t="inlineStr">
+      <c r="AT196" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30156,7 +30201,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR197" t="inlineStr">
+      <c r="AT197" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30321,7 +30366,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR198" t="inlineStr">
+      <c r="AT198" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30471,7 +30516,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR199" t="inlineStr">
+      <c r="AT199" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30636,7 +30681,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR200" t="inlineStr">
+      <c r="AS200" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT200" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30801,7 +30851,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR201" t="inlineStr">
+      <c r="AS201" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT201" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -30951,7 +31006,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR202" t="inlineStr">
+      <c r="AT202" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31101,7 +31156,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR203" t="inlineStr">
+      <c r="AT203" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31266,7 +31321,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR204" t="inlineStr">
+      <c r="AT204" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31416,7 +31471,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR205" t="inlineStr">
+      <c r="AT205" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31552,7 +31607,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR206" t="inlineStr">
+      <c r="AT206" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31688,7 +31743,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR207" t="inlineStr">
+      <c r="AT207" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -31838,7 +31893,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR208" t="inlineStr">
+      <c r="AT208" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32003,7 +32058,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR209" t="inlineStr">
+      <c r="AT209" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32168,7 +32223,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR210" t="inlineStr">
+      <c r="AS210" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT210" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32318,7 +32378,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR211" t="inlineStr">
+      <c r="AT211" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32454,7 +32514,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR212" t="inlineStr">
+      <c r="AT212" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32604,7 +32664,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR213" t="inlineStr">
+      <c r="AT213" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32769,7 +32829,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR214" t="inlineStr">
+      <c r="AS214" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT214" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -32905,7 +32970,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR215" t="inlineStr">
+      <c r="AT215" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33070,7 +33135,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR216" t="inlineStr">
+      <c r="AS216" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT216" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33220,7 +33290,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR217" t="inlineStr">
+      <c r="AT217" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33373,7 +33443,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR218" t="inlineStr">
+      <c r="AT218" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33523,7 +33593,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR219" t="inlineStr">
+      <c r="AT219" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33676,7 +33746,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR220" t="inlineStr">
+      <c r="AT220" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33826,7 +33896,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR221" t="inlineStr">
+      <c r="AT221" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -33979,7 +34049,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR222" t="inlineStr">
+      <c r="AT222" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34138,7 +34208,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR223" t="inlineStr">
+      <c r="AT223" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34291,7 +34361,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR224" t="inlineStr">
+      <c r="AS224" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT224" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34444,7 +34519,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR225" t="inlineStr">
+      <c r="AT225" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34600,7 +34675,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR226" t="inlineStr">
+      <c r="AT226" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34750,7 +34825,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR227" t="inlineStr">
+      <c r="AS227" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT227" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -34909,7 +34989,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR228" t="inlineStr">
+      <c r="AT228" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35065,7 +35145,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR229" t="inlineStr">
+      <c r="AS229" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT229" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35218,7 +35303,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR230" t="inlineStr">
+      <c r="AT230" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35371,7 +35456,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR231" t="inlineStr">
+      <c r="AT231" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35527,7 +35612,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR232" t="inlineStr">
+      <c r="AT232" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35683,7 +35768,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR233" t="inlineStr">
+      <c r="AT233" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35833,7 +35918,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR234" t="inlineStr">
+      <c r="AT234" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -35983,7 +36068,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR235" t="inlineStr">
+      <c r="AT235" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36136,7 +36221,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR236" t="inlineStr">
+      <c r="AT236" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36289,7 +36374,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR237" t="inlineStr">
+      <c r="AT237" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36442,7 +36527,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR238" t="inlineStr">
+      <c r="AT238" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36574,7 +36659,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR239" t="inlineStr">
+      <c r="AT239" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36711,7 +36796,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR240" t="inlineStr">
+      <c r="AT240" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -36878,7 +36963,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR241" t="inlineStr">
+      <c r="AT241" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37010,7 +37095,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR242" t="inlineStr">
+      <c r="AT242" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37177,7 +37262,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR243" t="inlineStr">
+      <c r="AT243" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37349,7 +37434,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR244" t="inlineStr">
+      <c r="AT244" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37481,7 +37566,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR245" t="inlineStr">
+      <c r="AT245" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37613,7 +37698,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR246" t="inlineStr">
+      <c r="AT246" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37750,7 +37835,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR247" t="inlineStr">
+      <c r="AT247" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -37887,7 +37972,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR248" t="inlineStr">
+      <c r="AT248" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38006,7 +38091,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR249" t="inlineStr">
+      <c r="AT249" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38125,7 +38210,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR250" t="inlineStr">
+      <c r="AT250" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38244,7 +38329,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR251" t="inlineStr">
+      <c r="AT251" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38381,7 +38466,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR252" t="inlineStr">
+      <c r="AT252" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38500,7 +38585,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR253" t="inlineStr">
+      <c r="AT253" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38637,7 +38722,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR254" t="inlineStr">
+      <c r="AT254" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38774,7 +38859,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR255" t="inlineStr">
+      <c r="AT255" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -38893,7 +38978,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR256" t="inlineStr">
+      <c r="AT256" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39030,7 +39115,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR257" t="inlineStr">
+      <c r="AT257" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39167,7 +39252,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR258" t="inlineStr">
+      <c r="AT258" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39286,7 +39371,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR259" t="inlineStr">
+      <c r="AT259" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39405,7 +39490,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR260" t="inlineStr">
+      <c r="AT260" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39542,7 +39627,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR261" t="inlineStr">
+      <c r="AT261" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39679,7 +39764,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR262" t="inlineStr">
+      <c r="AT262" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39834,7 +39919,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR263" t="inlineStr">
+      <c r="AT263" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -39989,7 +40074,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR264" t="inlineStr">
+      <c r="AT264" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40144,7 +40229,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR265" t="inlineStr">
+      <c r="AT265" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40294,7 +40379,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR266" t="inlineStr">
+      <c r="AT266" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40444,7 +40529,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR267" t="inlineStr">
+      <c r="AT267" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40599,7 +40684,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR268" t="inlineStr">
+      <c r="AT268" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40749,7 +40834,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR269" t="inlineStr">
+      <c r="AT269" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -40899,7 +40984,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR270" t="inlineStr">
+      <c r="AT270" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41054,7 +41139,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR271" t="inlineStr">
+      <c r="AT271" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41204,7 +41289,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR272" t="inlineStr">
+      <c r="AT272" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41354,7 +41439,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR273" t="inlineStr">
+      <c r="AT273" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41516,7 +41601,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR274" t="inlineStr">
+      <c r="AT274" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41678,7 +41763,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR275" t="inlineStr">
+      <c r="AT275" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -41840,7 +41925,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR276" t="inlineStr">
+      <c r="AT276" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42002,7 +42087,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR277" t="inlineStr">
+      <c r="AT277" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42164,7 +42249,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR278" t="inlineStr">
+      <c r="AT278" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42326,7 +42411,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR279" t="inlineStr">
+      <c r="AT279" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42488,7 +42573,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR280" t="inlineStr">
+      <c r="AT280" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42650,7 +42735,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR281" t="inlineStr">
+      <c r="AT281" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42812,7 +42897,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR282" t="inlineStr">
+      <c r="AT282" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -42974,7 +43059,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR283" t="inlineStr">
+      <c r="AT283" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43126,7 +43211,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR284" t="inlineStr">
+      <c r="AT284" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43278,7 +43363,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR285" t="inlineStr">
+      <c r="AT285" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43430,7 +43515,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR286" t="inlineStr">
+      <c r="AT286" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43582,7 +43667,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR287" t="inlineStr">
+      <c r="AT287" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43734,7 +43819,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR288" t="inlineStr">
+      <c r="AT288" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -43886,7 +43971,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR289" t="inlineStr">
+      <c r="AT289" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44038,7 +44123,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR290" t="inlineStr">
+      <c r="AT290" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44190,7 +44275,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR291" t="inlineStr">
+      <c r="AT291" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44342,7 +44427,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR292" t="inlineStr">
+      <c r="AT292" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44494,7 +44579,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR293" t="inlineStr">
+      <c r="AT293" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44646,7 +44731,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR294" t="inlineStr">
+      <c r="AT294" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44798,7 +44883,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR295" t="inlineStr">
+      <c r="AT295" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -44950,7 +45035,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR296" t="inlineStr">
+      <c r="AT296" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45102,7 +45187,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR297" t="inlineStr">
+      <c r="AT297" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45254,7 +45339,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR298" t="inlineStr">
+      <c r="AT298" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45406,7 +45491,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR299" t="inlineStr">
+      <c r="AT299" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45558,7 +45643,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR300" t="inlineStr">
+      <c r="AT300" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45710,7 +45795,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR301" t="inlineStr">
+      <c r="AT301" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -45862,7 +45947,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR302" t="inlineStr">
+      <c r="AT302" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46014,7 +46099,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR303" t="inlineStr">
+      <c r="AT303" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46166,7 +46251,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR304" t="inlineStr">
+      <c r="AT304" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46318,7 +46403,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR305" t="inlineStr">
+      <c r="AT305" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46470,7 +46555,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR306" t="inlineStr">
+      <c r="AT306" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46622,7 +46707,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR307" t="inlineStr">
+      <c r="AT307" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46774,7 +46859,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR308" t="inlineStr">
+      <c r="AT308" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -46926,7 +47011,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR309" t="inlineStr">
+      <c r="AT309" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47080,7 +47165,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR310" t="inlineStr">
+      <c r="AT310" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47232,7 +47317,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR311" t="inlineStr">
+      <c r="AT311" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47384,7 +47469,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR312" t="inlineStr">
+      <c r="AT312" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47536,7 +47621,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR313" t="inlineStr">
+      <c r="AT313" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47688,7 +47773,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR314" t="inlineStr">
+      <c r="AT314" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47822,7 +47907,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR315" t="inlineStr">
+      <c r="AT315" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -47974,7 +48059,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR316" t="inlineStr">
+      <c r="AT316" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48128,7 +48213,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR317" t="inlineStr">
+      <c r="AT317" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48282,7 +48367,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR318" t="inlineStr">
+      <c r="AT318" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48436,7 +48521,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR319" t="inlineStr">
+      <c r="AT319" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48593,7 +48678,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR320" t="inlineStr">
+      <c r="AT320" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48750,7 +48835,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR321" t="inlineStr">
+      <c r="AT321" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -48902,7 +48987,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR322" t="inlineStr">
+      <c r="AT322" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49054,7 +49139,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR323" t="inlineStr">
+      <c r="AT323" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49206,7 +49291,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR324" t="inlineStr">
+      <c r="AT324" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49360,7 +49445,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR325" t="inlineStr">
+      <c r="AT325" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49514,7 +49599,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR326" t="inlineStr">
+      <c r="AT326" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49666,7 +49751,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR327" t="inlineStr">
+      <c r="AT327" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49818,7 +49903,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR328" t="inlineStr">
+      <c r="AT328" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -49970,7 +50055,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR329" t="inlineStr">
+      <c r="AT329" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50124,7 +50209,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR330" t="inlineStr">
+      <c r="AT330" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50278,7 +50363,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR331" t="inlineStr">
+      <c r="AT331" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50432,7 +50517,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR332" t="inlineStr">
+      <c r="AT332" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50584,7 +50669,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR333" t="inlineStr">
+      <c r="AT333" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50738,7 +50823,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR334" t="inlineStr">
+      <c r="AT334" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -50890,7 +50975,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR335" t="inlineStr">
+      <c r="AT335" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51044,7 +51129,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR336" t="inlineStr">
+      <c r="AT336" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51201,7 +51286,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR337" t="inlineStr">
+      <c r="AT337" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51353,7 +51438,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR338" t="inlineStr">
+      <c r="AT338" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51510,7 +51595,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR339" t="inlineStr">
+      <c r="AT339" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51657,7 +51742,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR340" t="inlineStr">
+      <c r="AT340" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51801,7 +51886,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR341" t="inlineStr">
+      <c r="AT341" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -51945,7 +52030,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR342" t="inlineStr">
+      <c r="AT342" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -52097,7 +52182,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR343" t="inlineStr">
+      <c r="AT343" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -52244,7 +52329,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR344" t="inlineStr">
+      <c r="AT344" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -52388,7 +52473,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR345" t="inlineStr">
+      <c r="AT345" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -52532,7 +52617,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR346" t="inlineStr">
+      <c r="AT346" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -52676,7 +52761,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR347" t="inlineStr">
+      <c r="AT347" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -52823,7 +52908,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR348" t="inlineStr">
+      <c r="AT348" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -52970,7 +53055,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR349" t="inlineStr">
+      <c r="AT349" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53117,7 +53202,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR350" t="inlineStr">
+      <c r="AT350" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53246,7 +53331,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR351" t="inlineStr">
+      <c r="AT351" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53390,7 +53475,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR352" t="inlineStr">
+      <c r="AT352" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53534,7 +53619,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR353" t="inlineStr">
+      <c r="AT353" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53663,7 +53748,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR354" t="inlineStr">
+      <c r="AT354" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53792,7 +53877,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR355" t="inlineStr">
+      <c r="AT355" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -53939,7 +54024,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR356" t="inlineStr">
+      <c r="AT356" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -54068,7 +54153,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR357" t="inlineStr">
+      <c r="AT357" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -54215,7 +54300,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR358" t="inlineStr">
+      <c r="AT358" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -54367,7 +54452,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR359" t="inlineStr">
+      <c r="AT359" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -54519,7 +54604,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR360" t="inlineStr">
+      <c r="AT360" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -54671,7 +54756,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR361" t="inlineStr">
+      <c r="AT361" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -54823,7 +54908,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR362" t="inlineStr">
+      <c r="AT362" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -54970,7 +55055,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR363" t="inlineStr">
+      <c r="AT363" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -55117,7 +55202,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR364" t="inlineStr">
+      <c r="AT364" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -55264,7 +55349,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR365" t="inlineStr">
+      <c r="AT365" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -55411,7 +55496,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR366" t="inlineStr">
+      <c r="AT366" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -55563,7 +55648,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR367" t="inlineStr">
+      <c r="AT367" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -55707,7 +55792,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR368" t="inlineStr">
+      <c r="AT368" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -55869,7 +55954,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR369" t="inlineStr">
+      <c r="AT369" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -56013,7 +56098,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR370" t="inlineStr">
+      <c r="AT370" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -56175,7 +56260,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR371" t="inlineStr">
+      <c r="AT371" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -56319,7 +56404,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR372" t="inlineStr">
+      <c r="AT372" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -56481,7 +56566,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR373" t="inlineStr">
+      <c r="AT373" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -56643,7 +56728,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR374" t="inlineStr">
+      <c r="AT374" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -56787,7 +56872,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR375" t="inlineStr">
+      <c r="AT375" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -56931,7 +57016,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR376" t="inlineStr">
+      <c r="AT376" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -57093,7 +57178,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR377" t="inlineStr">
+      <c r="AT377" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -57237,7 +57322,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR378" t="inlineStr">
+      <c r="AT378" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -57380,7 +57465,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR379" t="inlineStr">
+      <c r="AT379" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -57516,7 +57601,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR380" t="inlineStr">
+      <c r="AT380" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -57659,7 +57744,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR381" t="inlineStr">
+      <c r="AT381" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -57802,7 +57887,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR382" t="inlineStr">
+      <c r="AT382" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -57938,7 +58023,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR383" t="inlineStr">
+      <c r="AT383" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -58074,7 +58159,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR384" t="inlineStr">
+      <c r="AT384" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -58210,7 +58295,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR385" t="inlineStr">
+      <c r="AT385" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -58353,7 +58438,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR386" t="inlineStr">
+      <c r="AT386" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -58489,7 +58574,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR387" t="inlineStr">
+      <c r="AT387" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -58632,7 +58717,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR388" t="inlineStr">
+      <c r="AT388" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -58775,7 +58860,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR389" t="inlineStr">
+      <c r="AT389" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -58911,7 +58996,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR390" t="inlineStr">
+      <c r="AT390" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -59054,7 +59139,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR391" t="inlineStr">
+      <c r="AT391" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -59190,7 +59275,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR392" t="inlineStr">
+      <c r="AT392" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -59326,7 +59411,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR393" t="inlineStr">
+      <c r="AT393" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -59478,7 +59563,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR394" t="inlineStr">
+      <c r="AT394" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -59630,7 +59715,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR395" t="inlineStr">
+      <c r="AT395" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -59782,7 +59867,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR396" t="inlineStr">
+      <c r="AT396" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -59937,7 +60022,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR397" t="inlineStr">
+      <c r="AT397" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -60089,7 +60174,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR398" t="inlineStr">
+      <c r="AT398" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -60241,7 +60326,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR399" t="inlineStr">
+      <c r="AT399" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -60393,7 +60478,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR400" t="inlineStr">
+      <c r="AT400" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -60548,7 +60633,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR401" t="inlineStr">
+      <c r="AT401" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -60676,7 +60761,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR402" t="inlineStr">
+      <c r="AT402" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -60804,7 +60889,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR403" t="inlineStr">
+      <c r="AT403" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -60935,7 +61020,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR404" t="inlineStr">
+      <c r="AT404" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -61058,7 +61143,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR405" t="inlineStr">
+      <c r="AT405" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -61186,7 +61271,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR406" t="inlineStr">
+      <c r="AT406" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -61314,7 +61399,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR407" t="inlineStr">
+      <c r="AT407" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -61445,7 +61530,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR408" t="inlineStr">
+      <c r="AT408" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -61573,7 +61658,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR409" t="inlineStr">
+      <c r="AT409" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -61701,7 +61786,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR410" t="inlineStr">
+      <c r="AT410" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -61832,7 +61917,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR411" t="inlineStr">
+      <c r="AT411" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -61960,7 +62045,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR412" t="inlineStr">
+      <c r="AT412" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -62083,7 +62168,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR413" t="inlineStr">
+      <c r="AT413" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -62211,7 +62296,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR414" t="inlineStr">
+      <c r="AT414" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -62334,7 +62419,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR415" t="inlineStr">
+      <c r="AT415" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -62462,7 +62547,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR416" t="inlineStr">
+      <c r="AT416" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -62614,7 +62699,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR417" t="inlineStr">
+      <c r="AT417" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -62766,7 +62851,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR418" t="inlineStr">
+      <c r="AT418" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -62918,7 +63003,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR419" t="inlineStr">
+      <c r="AT419" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -63072,6 +63157,11 @@
       </c>
       <c r="AR420" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT420" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -63222,7 +63312,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR421" t="inlineStr">
+      <c r="AT421" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -63343,6 +63433,11 @@
       </c>
       <c r="AR422" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT422" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -63478,7 +63573,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR423" t="inlineStr">
+      <c r="AT423" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -63615,7 +63710,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR424" t="inlineStr">
+      <c r="AT424" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -63752,7 +63847,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR425" t="inlineStr">
+      <c r="AT425" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -63889,7 +63984,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR426" t="inlineStr">
+      <c r="AT426" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -64026,7 +64121,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR427" t="inlineStr">
+      <c r="AT427" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -64145,7 +64240,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR428" t="inlineStr">
+      <c r="AT428" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -64312,7 +64407,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR429" t="inlineStr">
+      <c r="AT429" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -64479,7 +64574,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR430" t="inlineStr">
+      <c r="AT430" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -64646,7 +64741,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR431" t="inlineStr">
+      <c r="AT431" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -64793,7 +64888,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR432" t="inlineStr">
+      <c r="AT432" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -64940,7 +65035,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR433" t="inlineStr">
+      <c r="AT433" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -65087,7 +65182,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR434" t="inlineStr">
+      <c r="AT434" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -65231,7 +65326,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR435" t="inlineStr">
+      <c r="AT435" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -65378,7 +65473,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR436" t="inlineStr">
+      <c r="AT436" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -65497,7 +65592,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR437" t="inlineStr">
+      <c r="AT437" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -65616,7 +65711,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR438" t="inlineStr">
+      <c r="AT438" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -65735,7 +65830,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR439" t="inlineStr">
+      <c r="AT439" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -65882,7 +65977,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR440" t="inlineStr">
+      <c r="AT440" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -66024,7 +66119,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR441" t="inlineStr">
+      <c r="AT441" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -66166,7 +66261,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR442" t="inlineStr">
+      <c r="AT442" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -66313,7 +66408,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR443" t="inlineStr">
+      <c r="AT443" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -66462,6 +66557,11 @@
       </c>
       <c r="AR444" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT444" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -66602,7 +66702,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR445" t="inlineStr">
+      <c r="AT445" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -66749,7 +66849,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR446" t="inlineStr">
+      <c r="AT446" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -66896,7 +66996,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR447" t="inlineStr">
+      <c r="AT447" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -67035,7 +67135,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR448" t="inlineStr">
+      <c r="AT448" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -67174,7 +67274,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR449" t="inlineStr">
+      <c r="AT449" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -67313,7 +67413,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR450" t="inlineStr">
+      <c r="AT450" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -67452,7 +67552,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR451" t="inlineStr">
+      <c r="AT451" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -67591,7 +67691,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR452" t="inlineStr">
+      <c r="AT452" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -67730,7 +67830,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR453" t="inlineStr">
+      <c r="AT453" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -67869,7 +67969,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR454" t="inlineStr">
+      <c r="AT454" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -68008,7 +68108,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR455" t="inlineStr">
+      <c r="AT455" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -68147,7 +68247,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR456" t="inlineStr">
+      <c r="AT456" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -68286,7 +68386,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR457" t="inlineStr">
+      <c r="AT457" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -68425,7 +68525,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR458" t="inlineStr">
+      <c r="AT458" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -68564,7 +68664,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR459" t="inlineStr">
+      <c r="AT459" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -68703,7 +68803,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR460" t="inlineStr">
+      <c r="AT460" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -68842,7 +68942,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR461" t="inlineStr">
+      <c r="AT461" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -68981,7 +69081,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR462" t="inlineStr">
+      <c r="AT462" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -69100,7 +69200,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR463" t="inlineStr">
+      <c r="AT463" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -69239,7 +69339,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR464" t="inlineStr">
+      <c r="AT464" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -69378,7 +69478,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR465" t="inlineStr">
+      <c r="AT465" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -69517,7 +69617,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR466" t="inlineStr">
+      <c r="AT466" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -69656,7 +69756,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR467" t="inlineStr">
+      <c r="AT467" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -69803,7 +69903,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR468" t="inlineStr">
+      <c r="AT468" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -69950,7 +70050,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR469" t="inlineStr">
+      <c r="AT469" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -70097,7 +70197,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR470" t="inlineStr">
+      <c r="AT470" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -70246,6 +70346,11 @@
       </c>
       <c r="AR471" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT471" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -70391,7 +70496,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR472" t="inlineStr">
+      <c r="AT472" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -70538,7 +70643,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR473" t="inlineStr">
+      <c r="AT473" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -70657,7 +70762,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR474" t="inlineStr">
+      <c r="AT474" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -70776,7 +70881,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR475" t="inlineStr">
+      <c r="AT475" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -70895,7 +71000,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR476" t="inlineStr">
+      <c r="AT476" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -71009,7 +71114,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR477" t="inlineStr">
+      <c r="AT477" t="inlineStr">
         <is>
           <t>REVERTED</t>
         </is>
@@ -71128,7 +71233,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR478" t="inlineStr">
+      <c r="AT478" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -71247,7 +71352,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR479" t="inlineStr">
+      <c r="AT479" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -71374,7 +71479,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR480" t="inlineStr">
+      <c r="AT480" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -71501,7 +71606,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR481" t="inlineStr">
+      <c r="AT481" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -71628,7 +71733,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR482" t="inlineStr">
+      <c r="AT482" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -71785,7 +71890,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR483" t="inlineStr">
+      <c r="AT483" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -71942,7 +72047,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR484" t="inlineStr">
+      <c r="AT484" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -72099,7 +72204,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR485" t="inlineStr">
+      <c r="AT485" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -72256,7 +72361,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR486" t="inlineStr">
+      <c r="AT486" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -72413,7 +72518,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR487" t="inlineStr">
+      <c r="AT487" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -72570,7 +72675,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR488" t="inlineStr">
+      <c r="AT488" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -72729,6 +72834,11 @@
       </c>
       <c r="AR489" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT489" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -72846,7 +72956,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR490" t="inlineStr">
+      <c r="AT490" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -73005,6 +73115,11 @@
       </c>
       <c r="AR491" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT491" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -73160,7 +73275,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR492" t="inlineStr">
+      <c r="AT492" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -73279,7 +73394,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR493" t="inlineStr">
+      <c r="AT493" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -73398,7 +73513,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR494" t="inlineStr">
+      <c r="AT494" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -73517,7 +73632,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR495" t="inlineStr">
+      <c r="AT495" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -73646,6 +73761,11 @@
       </c>
       <c r="AR496" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT496" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -73771,7 +73891,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR497" t="inlineStr">
+      <c r="AT497" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -73898,7 +74018,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR498" t="inlineStr">
+      <c r="AT498" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -74027,6 +74147,11 @@
       </c>
       <c r="AR499" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT499" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -74154,6 +74279,11 @@
       </c>
       <c r="AR500" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT500" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -74281,6 +74411,11 @@
       </c>
       <c r="AR501" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT501" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -74408,6 +74543,11 @@
       </c>
       <c r="AR502" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT502" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -74533,7 +74673,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR503" t="inlineStr">
+      <c r="AT503" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -74649,6 +74789,11 @@
       </c>
       <c r="AR504" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT504" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -74763,6 +74908,11 @@
       </c>
       <c r="AR505" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT505" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -74877,6 +75027,11 @@
       </c>
       <c r="AR506" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT506" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -75010,6 +75165,16 @@
       </c>
       <c r="AR507" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS507" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT507" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -75143,6 +75308,16 @@
       </c>
       <c r="AR508" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS508" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT508" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -75276,6 +75451,16 @@
       </c>
       <c r="AR509" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS509" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT509" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -75409,6 +75594,16 @@
       </c>
       <c r="AR510" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS510" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT510" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -75542,6 +75737,16 @@
       </c>
       <c r="AR511" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS511" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT511" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -75675,6 +75880,16 @@
       </c>
       <c r="AR512" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS512" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT512" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -75808,6 +76023,16 @@
       </c>
       <c r="AR513" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS513" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT513" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -75941,6 +76166,16 @@
       </c>
       <c r="AR514" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS514" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT514" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -76074,6 +76309,16 @@
       </c>
       <c r="AR515" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS515" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT515" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -76207,6 +76452,16 @@
       </c>
       <c r="AR516" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS516" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT516" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -76340,6 +76595,16 @@
       </c>
       <c r="AR517" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS517" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT517" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -76473,6 +76738,16 @@
       </c>
       <c r="AR518" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS518" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT518" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -76606,6 +76881,16 @@
       </c>
       <c r="AR519" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS519" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT519" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -76739,6 +77024,16 @@
       </c>
       <c r="AR520" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS520" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT520" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -76872,6 +77167,16 @@
       </c>
       <c r="AR521" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS521" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT521" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -77020,6 +77325,11 @@
       </c>
       <c r="AR522" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT522" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -77168,6 +77478,11 @@
       </c>
       <c r="AR523" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT523" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -77316,6 +77631,11 @@
       </c>
       <c r="AR524" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT524" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -77464,6 +77784,11 @@
       </c>
       <c r="AR525" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT525" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -77578,6 +77903,11 @@
       </c>
       <c r="AR526" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT526" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -77692,6 +78022,11 @@
       </c>
       <c r="AR527" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT527" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -77806,6 +78141,11 @@
       </c>
       <c r="AR528" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT528" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -77920,6 +78260,11 @@
       </c>
       <c r="AR529" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT529" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -78031,6 +78376,11 @@
       </c>
       <c r="AR530" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT530" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -78145,6 +78495,11 @@
       </c>
       <c r="AR531" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT531" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -78259,6 +78614,11 @@
       </c>
       <c r="AR532" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT532" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -78373,6 +78733,11 @@
       </c>
       <c r="AR533" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT533" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -78487,6 +78852,11 @@
       </c>
       <c r="AR534" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT534" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -78601,6 +78971,11 @@
       </c>
       <c r="AR535" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT535" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -78715,6 +79090,11 @@
       </c>
       <c r="AR536" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT536" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -78829,6 +79209,11 @@
       </c>
       <c r="AR537" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT537" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -78943,6 +79328,11 @@
       </c>
       <c r="AR538" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT538" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -79080,6 +79470,11 @@
       </c>
       <c r="AR539" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT539" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -79194,6 +79589,11 @@
       </c>
       <c r="AR540" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT540" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -79308,6 +79708,11 @@
       </c>
       <c r="AR541" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT541" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -79422,6 +79827,11 @@
       </c>
       <c r="AR542" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT542" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -79536,6 +79946,11 @@
       </c>
       <c r="AR543" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT543" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -79650,6 +80065,11 @@
       </c>
       <c r="AR544" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT544" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -79764,6 +80184,11 @@
       </c>
       <c r="AR545" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT545" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -79878,6 +80303,11 @@
       </c>
       <c r="AR546" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT546" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -79992,6 +80422,11 @@
       </c>
       <c r="AR547" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT547" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -80106,6 +80541,11 @@
       </c>
       <c r="AR548" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT548" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -80220,6 +80660,11 @@
       </c>
       <c r="AR549" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT549" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -80334,6 +80779,11 @@
       </c>
       <c r="AR550" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT550" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -80448,6 +80898,11 @@
       </c>
       <c r="AR551" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT551" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -80562,6 +81017,11 @@
       </c>
       <c r="AR552" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT552" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -80676,6 +81136,11 @@
       </c>
       <c r="AR553" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT553" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -80790,6 +81255,11 @@
       </c>
       <c r="AR554" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT554" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -80904,6 +81374,11 @@
       </c>
       <c r="AR555" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT555" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -81018,6 +81493,11 @@
       </c>
       <c r="AR556" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT556" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -81165,6 +81645,11 @@
       </c>
       <c r="AR557" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT557" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -81299,6 +81784,16 @@
       </c>
       <c r="AR558" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS558" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT558" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -81440,6 +81935,16 @@
       </c>
       <c r="AR559" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS559" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT559" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -81590,6 +82095,16 @@
       </c>
       <c r="AR560" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS560" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT560" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -81740,6 +82255,16 @@
       </c>
       <c r="AR561" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS561" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT561" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -81890,6 +82415,16 @@
       </c>
       <c r="AR562" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS562" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT562" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -82040,6 +82575,16 @@
       </c>
       <c r="AR563" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS563" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT563" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -82195,6 +82740,11 @@
       </c>
       <c r="AR564" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT564" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -82350,6 +82900,11 @@
       </c>
       <c r="AR565" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT565" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -82498,6 +83053,11 @@
       </c>
       <c r="AR566" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT566" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -82610,6 +83170,11 @@
       </c>
       <c r="AR567" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT567" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -82736,6 +83301,11 @@
       </c>
       <c r="AR568" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT568" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -82882,6 +83452,11 @@
       </c>
       <c r="AR569" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT569" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -82994,7 +83569,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR570" t="inlineStr">
+      <c r="AT570" t="inlineStr">
         <is>
           <t>not yet started</t>
         </is>
@@ -83144,6 +83719,11 @@
       </c>
       <c r="AR571" t="inlineStr">
         <is>
+          <t>BBM 2025 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT571" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -83295,6 +83875,11 @@
       </c>
       <c r="AR572" t="inlineStr">
         <is>
+          <t>BBM 2024 SOLAR</t>
+        </is>
+      </c>
+      <c r="AT572" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -83433,6 +84018,11 @@
       </c>
       <c r="AR573" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT573" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -83568,6 +84158,11 @@
       </c>
       <c r="AR574" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT574" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -83706,6 +84301,11 @@
       </c>
       <c r="AR575" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT575" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -83844,6 +84444,11 @@
       </c>
       <c r="AR576" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT576" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -83979,6 +84584,11 @@
       </c>
       <c r="AR577" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT577" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -84121,7 +84731,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR578" t="inlineStr">
+      <c r="AT578" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -84246,6 +84856,11 @@
       </c>
       <c r="AR579" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT579" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -84369,6 +84984,11 @@
       </c>
       <c r="AR580" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT580" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -84525,6 +85145,11 @@
       </c>
       <c r="AR581" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT581" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -84670,6 +85295,11 @@
       </c>
       <c r="AR582" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT582" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -84815,6 +85445,11 @@
       </c>
       <c r="AR583" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT583" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -84965,6 +85600,11 @@
       </c>
       <c r="AR584" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT584" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -85115,6 +85755,11 @@
       </c>
       <c r="AR585" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT585" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -85265,6 +85910,11 @@
       </c>
       <c r="AR586" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT586" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -85416,13 +86066,18 @@
       </c>
       <c r="AR587" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT587" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AS2:AS587" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AU2:AU587" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
